--- a/biology/Médecine/Neurofibromatose_de_type_I/Neurofibromatose_de_type_I.xlsx
+++ b/biology/Médecine/Neurofibromatose_de_type_I/Neurofibromatose_de_type_I.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La neurofibromatose de type I est aussi appelée maladie de Recklinghausen du nom du médecin allemand, Friedrich Daniel von Recklinghausen, qui le premier a décrit cette maladie en 1881. C'est une maladie monogénique neurodéveloppementale, caractérisée par des symptômes multisystémiques incluant une augmentation du risque de déficit cognitif (50-70%)[1] et une prédisposition à la formation de tumeurs[2].  Elle est une des plus fréquentes 
-maladies génétiques à transmission autosomique dominante. Le gène NF1 est un des gènes dont le taux de mutation spontanée est un des plus importants chez l'homme[3] : environ la moitié des personnes atteintes par cette maladie est le résultat d'une mutation de novo.
+La neurofibromatose de type I est aussi appelée maladie de Recklinghausen du nom du médecin allemand, Friedrich Daniel von Recklinghausen, qui le premier a décrit cette maladie en 1881. C'est une maladie monogénique neurodéveloppementale, caractérisée par des symptômes multisystémiques incluant une augmentation du risque de déficit cognitif (50-70%) et une prédisposition à la formation de tumeurs.  Elle est une des plus fréquentes 
+maladies génétiques à transmission autosomique dominante. Le gène NF1 est un des gènes dont le taux de mutation spontanée est un des plus importants chez l'homme : environ la moitié des personnes atteintes par cette maladie est le résultat d'une mutation de novo.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son incidence est estimée à 1⁄4000 et sa prévalence à 1⁄5000[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son incidence est estimée à 1⁄4000 et sa prévalence à 1⁄5000.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène NF1 code une protéine, la neurofibromine, formée de plus de 2 800 acides aminés et qui ferait partie de la famille des enzymes hydrolysant la GTP (Guanosine triphosphate)[5]. Le gène NF1 est localisé sur le chromosome 17 en position 17q11.2.
-Le gène NF1 est un des gènes dont le taux de mutation spontanée est un des plus importants chez l'homme[réf. souhaitée] : environ la moitié des personnes atteintes par cette maladie est le résultat d'une mutation de novo[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène NF1 code une protéine, la neurofibromine, formée de plus de 2 800 acides aminés et qui ferait partie de la famille des enzymes hydrolysant la GTP (Guanosine triphosphate). Le gène NF1 est localisé sur le chromosome 17 en position 17q11.2.
+Le gène NF1 est un des gènes dont le taux de mutation spontanée est un des plus importants chez l'homme[réf. souhaitée] : environ la moitié des personnes atteintes par cette maladie est le résultat d'une mutation de novo.
 </t>
         </is>
       </c>
@@ -578,21 +594,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taches « café au lait »
-Les taches « café au lait » sont des taches de couleur variant du beige clair au marron foncé et dont la taille varie pour un adulte de quelques millimètres à plusieurs centimètres.
+          <t>Taches « café au lait »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les taches « café au lait » sont des taches de couleur variant du beige clair au marron foncé et dont la taille varie pour un adulte de quelques millimètres à plusieurs centimètres.
 Ces taches sont très fréquentes dans la population saine (plus de 10 % de la population en possède une ou deux), mais dans le cas de la NF-1 leur nombre est de 6 au minimum, certains malades en ayant parfois plusieurs dizaines. Ces taches peuvent disparaître à l'âge adulte.
 Elles apparaissent souvent dès la naissance. Pour être comptabilisées, elle doivent mesurer au minimum 5 mm chez un enfant et 1,5 cm chez un adulte et être au nombre de six minimum.
-Neurofibromes
-Les neurofibromes sont des tumeurs bénignes issues des filets nerveux. On distingue trois types de neurofibromes :
-Les neurofibromes cutanés : ils ont un aspect de pseudo-hernie, ils sont de la couleur de la peau ou un peu plus rosés, sont dépressibles au toucher, et leur palpation n'entraîne en général aucune douleur. Leur taille est très variable d'un individu à l'autre, et ils n'apparaissent qu'à partir de la puberté. Ils peuvent être enlevés soit par la chirurgie classique soit au laser.
-Les neurofibromes nodulaires : petites tumeurs sous-cutanées qui poussent le long du trajet d'un nerf, en chaînette, ils ont l'aspect de ganglions, et sont douloureux au toucher.
-Les neurofibromes plexiformes : Ce sont des tumeurs souvent de grande taille, qui peuvent être invasifs et donc poser des problèmes de compression de certains organes vitaux. Ils apparaissent très tôt dans la vie, mais leur croissance au moment de la puberté les fait remarquer. Ils sont présents dans la moitié des cas[7]. Ils sont difficilement opérables car très vascularisés, et situés parfois à l'intérieur du corps, d'où l'intérêt d'une IRM, du moins chez l'enfant[8]. Ils peuvent évoluer vers un cancer[9].
-Lentigines
-Les lentigines sont de petites taches comme des taches de rousseur, mais leur localisation est caractéristique : creux de l'aisselle ou creux de l'aine. Elles sont présentes chez 80 % des personnes atteintes de NF-1.
-Nodules de Lisch
-Ce sont de petits nodules colorés situés dans l'iris. Difficiles à voir à l'œil nu, on les observe à l'aide d'une lampe à fente. Ils n'entraînent aucun trouble de la vision de l'œil. Ils sont en revanche un bon élément de diagnostic puisque 90 % des adultes atteints de NF-1 en ont. Histologiquement, le nodule de Lisch est un hamartome.
-Déformations osseuses caractéristiques
-Il existe une courbure importante et un amincissement de la corticale des os longs, le plus souvent tibia, mais aussi fémur, radius, ulna, ainsi qu'une résorption de l'os alvéolaire pouvant entraîner la chute des dents.
 </t>
         </is>
       </c>
@@ -618,12 +628,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Neurofibromes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les neurofibromes sont des tumeurs bénignes issues des filets nerveux. On distingue trois types de neurofibromes :
+Les neurofibromes cutanés : ils ont un aspect de pseudo-hernie, ils sont de la couleur de la peau ou un peu plus rosés, sont dépressibles au toucher, et leur palpation n'entraîne en général aucune douleur. Leur taille est très variable d'un individu à l'autre, et ils n'apparaissent qu'à partir de la puberté. Ils peuvent être enlevés soit par la chirurgie classique soit au laser.
+Les neurofibromes nodulaires : petites tumeurs sous-cutanées qui poussent le long du trajet d'un nerf, en chaînette, ils ont l'aspect de ganglions, et sont douloureux au toucher.
+Les neurofibromes plexiformes : Ce sont des tumeurs souvent de grande taille, qui peuvent être invasifs et donc poser des problèmes de compression de certains organes vitaux. Ils apparaissent très tôt dans la vie, mais leur croissance au moment de la puberté les fait remarquer. Ils sont présents dans la moitié des cas. Ils sont difficilement opérables car très vascularisés, et situés parfois à l'intérieur du corps, d'où l'intérêt d'une IRM, du moins chez l'enfant. Ils peuvent évoluer vers un cancer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lentigines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lentigines sont de petites taches comme des taches de rousseur, mais leur localisation est caractéristique : creux de l'aisselle ou creux de l'aine. Elles sont présentes chez 80 % des personnes atteintes de NF-1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nodules de Lisch</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits nodules colorés situés dans l'iris. Difficiles à voir à l'œil nu, on les observe à l'aide d'une lampe à fente. Ils n'entraînent aucun trouble de la vision de l'œil. Ils sont en revanche un bon élément de diagnostic puisque 90 % des adultes atteints de NF-1 en ont. Histologiquement, le nodule de Lisch est un hamartome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Déformations osseuses caractéristiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une courbure importante et un amincissement de la corticale des os longs, le plus souvent tibia, mais aussi fémur, radius, ulna, ainsi qu'une résorption de l'os alvéolaire pouvant entraîner la chute des dents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Des critères de diagnostic ont été établis en 1988. Le diagnostic de neurofibromatose de type I est porté quand au moins deux des signes suivants sont rencontrés[10] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Des critères de diagnostic ont été établis en 1988. Le diagnostic de neurofibromatose de type I est porté quand au moins deux des signes suivants sont rencontrés :
 six taches ou plus mesurant au minimum 5 mm avant la puberté et 15 mm après la puberté ;
 deux neurofibromes de n'importe quel type ou un fibrome plexiforme ;
 lentigines de la région axillaire ou inguinale ;
@@ -634,31 +796,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Neurofibromatose_de_type_I</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Gravité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L'importance de cette affection évolutive est extrêmement variable d'un individu à l'autre.
 La grande majorité des malades ne présentent que des taches café au lait présentes dès la naissance, puis apparaissant souvent à la puberté, quelques tumeurs bénignes (neurofibromes cutanés) de petite taille et peu nombreuses.
@@ -675,71 +839,75 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Neurofibromatose_de_type_I</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun traitement certain ne peut actuellement guérir cette maladie, mais la vie des malades peut être améliorée par :
 la destruction des neurofibromes cutanés par électro-coagulation au laser,
 la chirurgie classique, avec :
 l'opération des neurofibromes plexiformes devenus trop gênants ;
 l'opération de déformations trop importantes de la colonne vertébrale.
-Le selumetinib permet la régression de certains neurofibromes plexiformes de l'enfant[11].
+Le selumetinib permet la régression de certains neurofibromes plexiformes de l'enfant.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Neurofibromatose_de_type_I</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neurofibromatose_de_type_I</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour toutes les formes de NF, il est vivement conseillé de se faire suivre médicalement la vie entière. Il existe en France une vingtaine d'équipes médicales pluridisciplinaires « neurofibromatoses ».
 Les 21 et 22 janvier 2007, l'équipe du professeur Laurent Lantieri de l'hôpital Henri Mondor de Créteil  (Val-de-Marne) a effectué une greffe de visage (nez, bouche, menton, joues) sur un malade dont le visage était déformé par des neurofibromes plexiformes volumineux.
-Joseph Merrick qui se produisait à Londres sous le surnom de L'Homme éléphant et fut plus tard immortalisé par le film The Elephant Man de David Lynch, a longtemps été considéré comme porteur de la neurofibromatose de type I. Des tests ADN faits dans les années 1990 prouveraient[12],[13],[14], comme les recherches le soupçonnaient depuis longtemps, qu'il était porteur d'une affection très rare, le syndrome de Protée.
+Joseph Merrick qui se produisait à Londres sous le surnom de L'Homme éléphant et fut plus tard immortalisé par le film The Elephant Man de David Lynch, a longtemps été considéré comme porteur de la neurofibromatose de type I. Des tests ADN faits dans les années 1990 prouveraient comme les recherches le soupçonnaient depuis longtemps, qu'il était porteur d'une affection très rare, le syndrome de Protée.
 Adam Pearson, l'acteur qui joue dans le film Under the Skin est atteint de neurofibromatose de type I.
 </t>
         </is>
